--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Bonds/BondStaticData.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Bonds/BondStaticData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Bonds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Bonds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F04AEF-57B4-4285-8587-4E22558C30EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A128055-4D7B-41BB-A5E6-3E6996BCCBD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18075" windowHeight="12270" tabRatio="423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="690" windowWidth="23940" windowHeight="13845" tabRatio="423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateBond" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreateBond!$A$1:$AV$38</definedName>
     <definedName name="NewBondData">CreateBond!$A$1:$AV$17</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -7993,19 +8001,19 @@
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" t="str">
         <f t="array" ref="B3:B114">_xll.HLV5r3.Financial.Cache.GetFixedIncomeDescription(K4:L4)</f>
-        <v>TCV 4 3/4 10/15/14</v>
+        <v>QTC 5 3/4 07/22/24</v>
       </c>
       <c r="C3" t="str">
         <f t="array" ref="C3:C114">_xll.HLV5r3.Financial.Cache.GetFixedIncomeISINs(K4:L4)</f>
-        <v>AU0000XVGAI9</v>
+        <v>AU0000XQLQU0</v>
       </c>
       <c r="D3" t="str">
         <f t="array" ref="D3:D114">_xll.HLV5r3.Financial.Cache.GetFixedIncomeUniqueIdentifiers(K4:L4)</f>
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.TCV.Fixed.4,75.15/10/2014</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.QTC.Fixed.5,75.22/07/2024</v>
       </c>
       <c r="E3" t="str">
         <f>SUBSTITUTE(D3,"Orion.V5r3.ReferenceData.FixedIncome.","")</f>
-        <v>Govt.TCV.Fixed.4,75.15/10/2014</v>
+        <v>Govt.QTC.Fixed.5,75.22/07/2024</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -8031,17 +8039,17 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" t="str">
-        <v>TASCOR 6 1/2 04/15/15</v>
+        <v>WATC 7 04/15/15</v>
       </c>
       <c r="C4" t="str">
-        <v>AU3SG0000029</v>
+        <v>AU000WT60354</v>
       </c>
       <c r="D4" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.TASCOR.Fixed.6,5.15/04/2015</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.WATC.Fixed.7.15/04/2015</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ref="E4:E67" si="0">SUBSTITUTE(D4,"Orion.V5r3.ReferenceData.FixedIncome.","")</f>
-        <v>Govt.TASCOR.Fixed.6,5.15/04/2015</v>
+        <v>Govt.WATC.Fixed.7.15/04/2015</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -8067,17 +8075,17 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="str">
-        <v>LLOYDS 0 03/19/14</v>
+        <v>WATC 8 07/15/17</v>
       </c>
       <c r="C5" t="str">
-        <v>AU0000HBOHH5</v>
+        <v>AU000WT60347</v>
       </c>
       <c r="D5" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.LLOYDS.Float.3,66.19/03/2014</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.WATC.Fixed.8.15/07/2017</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.LLOYDS.Float.3,66.19/03/2014</v>
+        <v>Govt.WATC.Fixed.8.15/07/2017</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -8099,17 +8107,17 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" t="str">
-        <v>ASIA 5 1/2 02/15/16</v>
+        <v>WATC 7 07/15/21</v>
       </c>
       <c r="C6" t="str">
-        <v>AU0000ATBHB2</v>
+        <v>AU000WT60370</v>
       </c>
       <c r="D6" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.ASIA.Fixed.5,5.15/02/2016</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.WATC.Fixed.7.15/07/2021</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.ASIA.Fixed.5,5.15/02/2016</v>
+        <v>Govt.WATC.Fixed.7.15/07/2021</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -8131,17 +8139,17 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" t="str">
-        <v>QTC 5 3/4 07/22/24</v>
+        <v>WATC 7 10/15/19</v>
       </c>
       <c r="C7" t="str">
-        <v>AU0000XQLQU0</v>
+        <v>AU000WT60339</v>
       </c>
       <c r="D7" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.QTC.Fixed.5,75.22/07/2024</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.WATC.Fixed.7.15/10/2019</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>Govt.QTC.Fixed.5,75.22/07/2024</v>
+        <v>Govt.WATC.Fixed.7.15/10/2019</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -8161,17 +8169,17 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" t="str">
-        <v>ICBCAS 0 07/14/14</v>
+        <v>ANZ 5 1/4 01/16/14</v>
       </c>
       <c r="C8" t="str">
-        <v>AU3FN0013496</v>
+        <v>AU3CB0100857</v>
       </c>
       <c r="D8" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.ICBCAS.Float.5,26.14/07/2014</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.ANZ.Fixed.5,25.16/01/2014</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.ICBCAS.Float.5,26.14/07/2014</v>
+        <v>Corp.ANZ.Fixed.5,25.16/01/2014</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -8194,17 +8202,17 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" t="str">
-        <v>KFW 5 3/4 05/13/15</v>
+        <v>ANZ 0 02/17/14</v>
       </c>
       <c r="C9" t="str">
-        <v>AU0000KFWHE0</v>
+        <v>AU000ANZHAH6</v>
       </c>
       <c r="D9" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.KFW.Fixed.5,75.13/05/2015</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.ANZ.Float.4,67.17/02/2014</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.KFW.Fixed.5,75.13/05/2015</v>
+        <v>Corp.ANZ.Float.4,67.17/02/2014</v>
       </c>
       <c r="F9">
         <v>100</v>
@@ -8224,17 +8232,17 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" t="str">
-        <v>WATC 5 1/2 07/17/12</v>
+        <v>ASIA 5 1/2 02/15/16</v>
       </c>
       <c r="C10" t="str">
-        <v>AU3SG0000128</v>
+        <v>AU0000ATBHB2</v>
       </c>
       <c r="D10" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.WATC.Fixed.5,5.17/07/2012</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.ASIA.Fixed.5,5.15/02/2016</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>Govt.WATC.Fixed.5,5.17/07/2012</v>
+        <v>Corp.ASIA.Fixed.5,5.15/02/2016</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -8257,17 +8265,17 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" t="str">
-        <v>IADB 6 1/2 08/20/19</v>
+        <v>BACR 0 08/13/12</v>
       </c>
       <c r="C11" t="str">
-        <v>AU3CB0123537</v>
+        <v>AU3FN0008900</v>
       </c>
       <c r="D11" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.IADB.Fixed.6,5.20/08/2019</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.BACR.Float.5,43.13/08/2012</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.IADB.Fixed.6,5.20/08/2019</v>
+        <v>Corp.BACR.Float.5,43.13/08/2012</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -8290,17 +8298,17 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
-        <v>NSWTC 6 02/01/18</v>
+        <v>BQDAU 0 10/22/12</v>
       </c>
       <c r="C12" t="str">
-        <v>AU3SG0000235</v>
+        <v>AU3FN0008629</v>
       </c>
       <c r="D12" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.NSWTC.Fixed.6.1/02/2018</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.BQDAU.Float.4,81.22/10/2012</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>Govt.NSWTC.Fixed.6.1/02/2018</v>
+        <v>Corp.BQDAU.Float.4,81.22/10/2012</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -8320,17 +8328,17 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" t="str">
-        <v>INTNED 0 06/24/14</v>
+        <v>EIB 6 1/4 04/15/15</v>
       </c>
       <c r="C13" t="str">
-        <v>AU3FN0008561</v>
+        <v>AU3CB0134583</v>
       </c>
       <c r="D13" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.INTNED.Float.4,17.24/06/2014</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.EIB.Fixed.6,25.15/04/2015</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.INTNED.Float.4,17.24/06/2014</v>
+        <v>Corp.EIB.Fixed.6,25.15/04/2015</v>
       </c>
       <c r="F13">
         <v>100</v>
@@ -8350,17 +8358,17 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
-        <v>SAFA 5 3/4 04/20/15</v>
+        <v>FMSWER 5 03/20/17</v>
       </c>
       <c r="C14" t="str">
-        <v>AU3SG0000094</v>
+        <v>AU3CB0191476</v>
       </c>
       <c r="D14" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.SAFA.Fixed.5,75.20/04/2015</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.FMSWER.Fixed.5.20/03/2017</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>Govt.SAFA.Fixed.5,75.20/04/2015</v>
+        <v>Corp.FMSWER.Fixed.5.20/03/2017</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -8380,17 +8388,17 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" t="str">
-        <v>IFC 5 3/4 06/24/14</v>
+        <v>IADB 6 1/2 08/20/19</v>
       </c>
       <c r="C15" t="str">
-        <v>AU0000IFXHB8</v>
+        <v>AU3CB0123537</v>
       </c>
       <c r="D15" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.IFC.Fixed.5,75.24/06/2014</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.IADB.Fixed.6,5.20/08/2019</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.IFC.Fixed.5,75.24/06/2014</v>
+        <v>Corp.IADB.Fixed.6,5.20/08/2019</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -8410,17 +8418,17 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" t="str">
-        <v>TCV 6 06/15/20</v>
+        <v>IADB 6 05/25/16</v>
       </c>
       <c r="C16" t="str">
-        <v>AU0000XVGZF2</v>
+        <v>AU300IADB049</v>
       </c>
       <c r="D16" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.TCV.Fixed.6.15/06/2020</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.IADB.Fixed.6.25/05/2016</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>Govt.TCV.Fixed.6.15/06/2020</v>
+        <v>Corp.IADB.Fixed.6.25/05/2016</v>
       </c>
       <c r="F16">
         <v>100</v>
@@ -8446,17 +8454,17 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="str">
-        <v>TCV 6 10/17/22</v>
+        <v>IBRD 6 11/09/16</v>
       </c>
       <c r="C17" t="str">
-        <v>AU0000XVGZZ0</v>
+        <v>AU3CB0006849</v>
       </c>
       <c r="D17" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.TCV.Fixed.6.17/10/2022</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.IBRD.Fixed.6.9/11/2016</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>Govt.TCV.Fixed.6.17/10/2022</v>
+        <v>Corp.IBRD.Fixed.6.9/11/2016</v>
       </c>
       <c r="F17">
         <v>100</v>
@@ -8478,22 +8486,22 @@
       </c>
       <c r="L17" s="11">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43640</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="str">
-        <v>WSTP 7 1/4 11/18/16</v>
+        <v>ICBCAS 0 07/14/14</v>
       </c>
       <c r="C18" t="str">
-        <v>AU000WBCHAL6</v>
+        <v>AU3FN0013496</v>
       </c>
       <c r="D18" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.WSTP.Fixed.7,25.18/11/2016</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.ICBCAS.Float.5,26.14/07/2014</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.WSTP.Fixed.7,25.18/11/2016</v>
+        <v>Corp.ICBCAS.Float.5,26.14/07/2014</v>
       </c>
       <c r="F18">
         <v>100</v>
@@ -8513,17 +8521,17 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
-        <v>NAB 6 3/4 09/16/14</v>
+        <v>IFC 5 3/4 06/24/14</v>
       </c>
       <c r="C19" t="str">
-        <v>AU3CB0127405</v>
+        <v>AU0000IFXHB8</v>
       </c>
       <c r="D19" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.NAB.Fixed.6,75.16/09/2014</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.IFC.Fixed.5,75.24/06/2014</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.NAB.Fixed.6,75.16/09/2014</v>
+        <v>Corp.IFC.Fixed.5,75.24/06/2014</v>
       </c>
       <c r="F19">
         <v>100</v>
@@ -8543,17 +8551,17 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="str">
-        <v>FMSWER 5 03/20/17</v>
+        <v>INTNED 0 06/24/14</v>
       </c>
       <c r="C20" t="str">
-        <v>AU3CB0191476</v>
+        <v>AU3FN0008561</v>
       </c>
       <c r="D20" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.FMSWER.Fixed.5.20/03/2017</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.INTNED.Float.4,17.24/06/2014</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.FMSWER.Fixed.5.20/03/2017</v>
+        <v>Corp.INTNED.Float.4,17.24/06/2014</v>
       </c>
       <c r="F20">
         <v>100</v>
@@ -8577,17 +8585,17 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="str">
-        <v>WATC 7 07/15/21</v>
+        <v>KFW 5 3/4 05/13/15</v>
       </c>
       <c r="C21" t="str">
-        <v>AU000WT60370</v>
+        <v>AU0000KFWHE0</v>
       </c>
       <c r="D21" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.WATC.Fixed.7.15/07/2021</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.KFW.Fixed.5,75.13/05/2015</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>Govt.WATC.Fixed.7.15/07/2021</v>
+        <v>Corp.KFW.Fixed.5,75.13/05/2015</v>
       </c>
       <c r="F21">
         <v>100</v>
@@ -8607,17 +8615,17 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="str">
-        <v>RABOBK 0 07/03/14</v>
+        <v>LLOYDS 0 03/19/14</v>
       </c>
       <c r="C22" t="str">
-        <v>AU3FN0008595</v>
+        <v>AU0000HBOHH5</v>
       </c>
       <c r="D22" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.RABOBK.Float.4,84.3/07/2014</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.LLOYDS.Float.3,66.19/03/2014</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.RABOBK.Float.4,84.3/07/2014</v>
+        <v>Corp.LLOYDS.Float.3,66.19/03/2014</v>
       </c>
       <c r="F22">
         <v>100</v>
@@ -8637,17 +8645,17 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="str">
-        <v>ANZ 0 02/17/14</v>
+        <v>NAB 6 3/4 09/16/14</v>
       </c>
       <c r="C23" t="str">
-        <v>AU000ANZHAH6</v>
+        <v>AU3CB0127405</v>
       </c>
       <c r="D23" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.ANZ.Float.4,67.17/02/2014</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.NAB.Fixed.6,75.16/09/2014</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.ANZ.Float.4,67.17/02/2014</v>
+        <v>Corp.NAB.Fixed.6,75.16/09/2014</v>
       </c>
       <c r="F23">
         <v>100</v>
@@ -8667,17 +8675,17 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="str">
-        <v>ANZ 5 1/4 01/16/14</v>
+        <v>NIB 6 08/20/14</v>
       </c>
       <c r="C24" t="str">
-        <v>AU3CB0100857</v>
+        <v>AU0000NIBHC6</v>
       </c>
       <c r="D24" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.ANZ.Fixed.5,25.16/01/2014</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.NIB.Fixed.6.20/08/2014</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.ANZ.Fixed.5,25.16/01/2014</v>
+        <v>Corp.NIB.Fixed.6.20/08/2014</v>
       </c>
       <c r="F24">
         <v>100</v>
@@ -8697,17 +8705,17 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="str">
-        <v>EIB 6 1/4 04/15/15</v>
+        <v>OCBCSP 0 07/14/14</v>
       </c>
       <c r="C25" t="str">
-        <v>AU3CB0134583</v>
+        <v>AU3FN0013512</v>
       </c>
       <c r="D25" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.EIB.Fixed.6,25.15/04/2015</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.OCBCSP.Float.5,04.14/07/2014</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.EIB.Fixed.6,25.15/04/2015</v>
+        <v>Corp.OCBCSP.Float.5,04.14/07/2014</v>
       </c>
       <c r="F25">
         <v>100</v>
@@ -8727,17 +8735,17 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="str">
-        <v>WSTP 0 08/18/14</v>
+        <v>RABOBK 0 07/03/14</v>
       </c>
       <c r="C26" t="str">
-        <v>AU000WBCHAI2</v>
+        <v>AU3FN0008595</v>
       </c>
       <c r="D26" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.WSTP.Float.4,7383.18/08/2014</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.RABOBK.Float.4,84.3/07/2014</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.WSTP.Float.4,7383.18/08/2014</v>
+        <v>Corp.RABOBK.Float.4,84.3/07/2014</v>
       </c>
       <c r="F26">
         <v>100</v>
@@ -8757,17 +8765,17 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="str">
-        <v>OCBCSP 0 07/14/14</v>
+        <v>WSTP 7 1/4 11/18/16</v>
       </c>
       <c r="C27" t="str">
-        <v>AU3FN0013512</v>
+        <v>AU000WBCHAL6</v>
       </c>
       <c r="D27" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.OCBCSP.Float.5,04.14/07/2014</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.WSTP.Fixed.7,25.18/11/2016</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.OCBCSP.Float.5,04.14/07/2014</v>
+        <v>Corp.WSTP.Fixed.7,25.18/11/2016</v>
       </c>
       <c r="F27">
         <v>100</v>
@@ -8787,17 +8795,17 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="str">
-        <v>TCV 5 1/2 11/15/18</v>
+        <v>WSTP 0 08/18/14</v>
       </c>
       <c r="C28" t="str">
-        <v>AU3SG0000060</v>
+        <v>AU000WBCHAI2</v>
       </c>
       <c r="D28" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.TCV.Fixed.5,5.15/11/2018</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.WSTP.Float.4,7383.18/08/2014</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>Govt.TCV.Fixed.5,5.15/11/2018</v>
+        <v>Corp.WSTP.Float.4,7383.18/08/2014</v>
       </c>
       <c r="F28">
         <v>100</v>
@@ -8817,17 +8825,17 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="str">
-        <v>IADB 6 05/25/16</v>
+        <v>NSWTC 6 02/01/18</v>
       </c>
       <c r="C29" t="str">
-        <v>AU300IADB049</v>
+        <v>AU3SG0000235</v>
       </c>
       <c r="D29" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.IADB.Fixed.6.25/05/2016</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.NSWTC.Fixed.6.1/02/2018</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.IADB.Fixed.6.25/05/2016</v>
+        <v>Govt.NSWTC.Fixed.6.1/02/2018</v>
       </c>
       <c r="F29">
         <v>100</v>
@@ -8877,17 +8885,17 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="str">
-        <v>NIB 6 08/20/14</v>
+        <v>SAFA 5 3/4 04/20/15</v>
       </c>
       <c r="C31" t="str">
-        <v>AU0000NIBHC6</v>
+        <v>AU3SG0000094</v>
       </c>
       <c r="D31" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.NIB.Fixed.6.20/08/2014</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.SAFA.Fixed.5,75.20/04/2015</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.NIB.Fixed.6.20/08/2014</v>
+        <v>Govt.SAFA.Fixed.5,75.20/04/2015</v>
       </c>
       <c r="F31">
         <v>100</v>
@@ -8907,17 +8915,17 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" t="str">
-        <v>BACR 0 08/13/12</v>
+        <v>TASCOR 6 1/2 04/15/15</v>
       </c>
       <c r="C32" t="str">
-        <v>AU3FN0008900</v>
+        <v>AU3SG0000029</v>
       </c>
       <c r="D32" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.BACR.Float.5,43.13/08/2012</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.TASCOR.Fixed.6,5.15/04/2015</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.BACR.Float.5,43.13/08/2012</v>
+        <v>Govt.TASCOR.Fixed.6,5.15/04/2015</v>
       </c>
       <c r="F32">
         <v>100</v>
@@ -8937,17 +8945,17 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" t="str">
-        <v>TCV 5 3/4 11/15/16</v>
+        <v>TCV 4 3/4 10/15/14</v>
       </c>
       <c r="C33" t="str">
-        <v>AU0000XVGZA3</v>
+        <v>AU0000XVGAI9</v>
       </c>
       <c r="D33" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.TCV.Fixed.5,75.15/11/2016</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.TCV.Fixed.4,75.15/10/2014</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>Govt.TCV.Fixed.5,75.15/11/2016</v>
+        <v>Govt.TCV.Fixed.4,75.15/10/2014</v>
       </c>
       <c r="F33">
         <v>100</v>
@@ -8967,17 +8975,17 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" t="str">
-        <v>WATC 7 10/15/19</v>
+        <v>TCV 5 1/2 11/15/18</v>
       </c>
       <c r="C34" t="str">
-        <v>AU000WT60339</v>
+        <v>AU3SG0000060</v>
       </c>
       <c r="D34" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.WATC.Fixed.7.15/10/2019</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.TCV.Fixed.5,5.15/11/2018</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>Govt.WATC.Fixed.7.15/10/2019</v>
+        <v>Govt.TCV.Fixed.5,5.15/11/2018</v>
       </c>
       <c r="F34">
         <v>100</v>
@@ -8997,17 +9005,17 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" t="str">
-        <v>IBRD 6 11/09/16</v>
+        <v>TCV 5 3/4 11/15/16</v>
       </c>
       <c r="C35" t="str">
-        <v>AU3CB0006849</v>
+        <v>AU0000XVGZA3</v>
       </c>
       <c r="D35" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.IBRD.Fixed.6.9/11/2016</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.TCV.Fixed.5,75.15/11/2016</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.IBRD.Fixed.6.9/11/2016</v>
+        <v>Govt.TCV.Fixed.5,75.15/11/2016</v>
       </c>
       <c r="F35">
         <v>100</v>
@@ -9027,17 +9035,17 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" t="str">
-        <v>WATC 7 04/15/15</v>
+        <v>TCV 6 06/15/20</v>
       </c>
       <c r="C36" t="str">
-        <v>AU000WT60354</v>
+        <v>AU0000XVGZF2</v>
       </c>
       <c r="D36" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.WATC.Fixed.7.15/04/2015</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.TCV.Fixed.6.15/06/2020</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>Govt.WATC.Fixed.7.15/04/2015</v>
+        <v>Govt.TCV.Fixed.6.15/06/2020</v>
       </c>
       <c r="F36">
         <v>100</v>
@@ -9057,17 +9065,17 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" t="str">
-        <v>WATC 8 07/15/17</v>
+        <v>TCV 6 10/17/22</v>
       </c>
       <c r="C37" t="str">
-        <v>AU000WT60347</v>
+        <v>AU0000XVGZZ0</v>
       </c>
       <c r="D37" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.WATC.Fixed.8.15/07/2017</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.TCV.Fixed.6.17/10/2022</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>Govt.WATC.Fixed.8.15/07/2017</v>
+        <v>Govt.TCV.Fixed.6.17/10/2022</v>
       </c>
       <c r="F37">
         <v>100</v>
@@ -9087,17 +9095,17 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" t="str">
-        <v>BQDAU 0 10/22/12</v>
+        <v>WATC 5 1/2 07/17/12</v>
       </c>
       <c r="C38" t="str">
-        <v>AU3FN0008629</v>
+        <v>AU3SG0000128</v>
       </c>
       <c r="D38" t="str">
-        <v>Orion.V5r3.ReferenceData.FixedIncome.Corp.BQDAU.Float.4,81.22/10/2012</v>
+        <v>Orion.V5r3.ReferenceData.FixedIncome.Govt.WATC.Fixed.5,5.17/07/2012</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>Corp.BQDAU.Float.4,81.22/10/2012</v>
+        <v>Govt.WATC.Fixed.5,5.17/07/2012</v>
       </c>
       <c r="F38">
         <v>100</v>
